--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1873300.550445515</v>
+        <v>1977480.184896586</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>81.70472281453269</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>121.50912103675</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>175.8087577984704</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>231.4760253798854</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.7391374254005</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70.95479928135303</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>129.3010488725291</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>252.4443191501087</v>
+        <v>290.6755243716756</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>167.8761620914673</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>152.3881560577807</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>136.5078095423594</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.1222404669086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>98.00068573248024</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.8435308896553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187842</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444167</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30.85302310518022</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.9142662664077</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605719686</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>94.64226186543371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>180.3302385618274</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892392</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>46.52295781333201</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>49.34762173749063</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310382</v>
+        <v>24.27150084979074</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>165.6720686991039</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>132.1190787273634</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>62.36981422367045</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>167.0196863409688</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>160.0741855917653</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>149.0421394771659</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3092.578667240559</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2739.810011970445</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.169050396912</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1659.879487009182</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1659.879487009182</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1405.194998803295</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1405.194998803295</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9977502341333</v>
+        <v>698.5757713318894</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>529.6395884039825</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>529.6395884039825</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.7264948215894</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.7264948215894</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.404471169111</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.404471169111</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1003.987301132151</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>775.9977502341333</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.9977502341333</v>
+        <v>880.2242361621292</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1845.410930903096</v>
+        <v>1848.950422814787</v>
       </c>
       <c r="C8" t="n">
-        <v>1845.410930903096</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="D8" t="n">
-        <v>1487.145232296345</v>
+        <v>1121.722207267625</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139987</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878907</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903096</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
         <v>625.6709106036544</v>
@@ -4951,13 +4953,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1757.722667188021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1535.956051757547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1246.853184883191</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1246.853184883191</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>957.4360148462299</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>957.4360148462299</v>
+        <v>1015.399672675091</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>794.6070935315613</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,31 +5053,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961526</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.15426255076</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.063992790047</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5835,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5966,55 +5968,55 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362716</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6026,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400728</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121659</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703124</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6269,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400744</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121676</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121676</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121676</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121676</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270477</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648822</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611861</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138439</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.502065570314</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770369</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>634.33458784913</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367942</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>336.3048548544011</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4149073564908</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854711</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648824</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648824</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750807</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072766</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.981709809277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2877.307316025036</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3474.685803651587</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>4102.283767206194</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1063.573343591573</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C34" t="n">
-        <v>894.6371606636665</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>744.5205212513307</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>596.6074276689376</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>449.7174801710272</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>282.5213808859071</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>140.8095497281052</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>1466.014387565343</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>1245.221808421813</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,10 +7025,10 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796738</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868831</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456495</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874102</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376192</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4638.948609567175</v>
+        <v>4416.415946780859</v>
       </c>
       <c r="U37" t="n">
-        <v>4349.873382911373</v>
+        <v>4127.340720125057</v>
       </c>
       <c r="V37" t="n">
-        <v>4095.188894705486</v>
+        <v>3872.65623191917</v>
       </c>
       <c r="W37" t="n">
-        <v>3805.771724668525</v>
+        <v>3583.239061882209</v>
       </c>
       <c r="X37" t="n">
-        <v>3577.782173770508</v>
+        <v>3355.249510984192</v>
       </c>
       <c r="Y37" t="n">
-        <v>3356.989594626978</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138338</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7576,43 +7578,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.06254548756</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510501</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854699</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648812</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611851</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138338</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2383.963271233119</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.73901155626845</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>67.52345255978861</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.74112246243948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788399</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>5.506781756523509</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.494940240504</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>70.88187642683513</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.6960474398171641</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>34.74287850523352</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>131.678664264154</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241845</v>
+        <v>193.1339494774975</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>14.15991148283342</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>35.12774237126442</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>118.6564717779741</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>873072.8497277193</v>
+        <v>873072.8497277194</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447279</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,31 +26432,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680603</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680595</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680571</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26522,46 +26524,46 @@
         <v>-952913.4583721443</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.2873554481</v>
+        <v>375831.287355448</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.2873554482</v>
+        <v>375831.287355448</v>
       </c>
       <c r="E6" t="n">
-        <v>126690.6519349362</v>
+        <v>126690.6519349365</v>
       </c>
       <c r="F6" t="n">
+        <v>452103.1137422913</v>
+      </c>
+      <c r="G6" t="n">
+        <v>452103.1137422915</v>
+      </c>
+      <c r="H6" t="n">
+        <v>452103.1137422915</v>
+      </c>
+      <c r="I6" t="n">
+        <v>452103.1137422918</v>
+      </c>
+      <c r="J6" t="n">
+        <v>234571.9113450141</v>
+      </c>
+      <c r="K6" t="n">
+        <v>452103.1137422915</v>
+      </c>
+      <c r="L6" t="n">
         <v>452103.1137422916</v>
       </c>
-      <c r="G6" t="n">
-        <v>452103.1137422917</v>
-      </c>
-      <c r="H6" t="n">
-        <v>452103.113742292</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>367048.0858067798</v>
+      </c>
+      <c r="N6" t="n">
         <v>452103.1137422912</v>
       </c>
-      <c r="J6" t="n">
-        <v>234571.9113450137</v>
-      </c>
-      <c r="K6" t="n">
-        <v>452103.1137422913</v>
-      </c>
-      <c r="L6" t="n">
-        <v>452103.1137422915</v>
-      </c>
-      <c r="M6" t="n">
-        <v>367048.0858067796</v>
-      </c>
-      <c r="N6" t="n">
-        <v>452103.1137422915</v>
-      </c>
       <c r="O6" t="n">
+        <v>452103.1137422914</v>
+      </c>
+      <c r="P6" t="n">
         <v>452103.1137422916</v>
-      </c>
-      <c r="P6" t="n">
-        <v>452103.1137422913</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>212.9030415727878</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>206.2431374333848</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>53.73645647354655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>43.74019147769877</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4543446923764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.4988012306531</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>95.07100897767519</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>156.9107893330838</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>129.4860509221531</v>
+        <v>91.25484570058615</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>21.89286323997462</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>73.32149933125649</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>500.7380235181008</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>533.6019216797995</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,25 +33031,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772182</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>456.5952253539618</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33743,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543625</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>366.7636161037705</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>395.0475418999253</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37391,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991805</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37946,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010374</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977480.184896586</v>
+        <v>1973467.574882594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>81.70472281453269</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.3393327866099</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>175.8087577984704</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>257.5019343756086</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>195.5565936082887</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7391374254005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>70.95479928135303</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1104,25 +1104,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>31.8068469129627</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>112.0219684588056</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>290.6755243716756</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>152.3881560577807</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>136.5078095423594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>134.3852063573442</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>99.43007309478972</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>67.10592483573257</v>
       </c>
       <c r="G19" t="n">
-        <v>98.00068573248024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>30.85302310518022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.9142662664077</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>180.3302385618274</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>59.31005804030097</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.34762173749063</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>24.27150084979074</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>189.7822042251789</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.6720686991039</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>223.829035290595</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>62.36981422367045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796247</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939213</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939213</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>167.0196863409688</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>160.0741855917653</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>149.0421394771659</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218339</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
@@ -4515,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1659.879487009182</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1659.879487009182</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="V4" t="n">
-        <v>1405.194998803295</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="W4" t="n">
-        <v>1405.194998803295</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>1177.205447905277</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.4128687617472</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1555.338782035317</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.5757713318894</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>529.6395884039825</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>529.6395884039825</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>381.7264948215894</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>381.7264948215894</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4752,25 +4752,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621292</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621292</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1848.950422814787</v>
+        <v>2089.358425227296</v>
       </c>
       <c r="C8" t="n">
-        <v>1479.987905874375</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1121.722207267625</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2235.550262878909</v>
+        <v>2475.958265291418</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>1015.399672675091</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>794.6070935315613</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,10 +5074,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>229.5592957321579</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D19" t="n">
-        <v>564.5188827892232</v>
+        <v>618.4214495336229</v>
       </c>
       <c r="E19" t="n">
-        <v>416.6057892068301</v>
+        <v>470.5083559512298</v>
       </c>
       <c r="F19" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>643.582908441376</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>495.6698148589829</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>348.7798673610725</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.3929232910542</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>782.4567403631473</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>632.3401009508116</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.4270073684185</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.823518162841</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.833967264824</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.041388121294</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.811327457202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>235.8125159357158</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2330.071297269541</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2330.071297269541</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2040.996070613739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.311582407852</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.894412370891</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X34" t="n">
-        <v>1268.904861472874</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4416.415946780859</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4127.340720125057</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3872.65623191917</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W37" t="n">
-        <v>3583.239061882209</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X37" t="n">
-        <v>3355.249510984192</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984192</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.8410298377091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2383.963271233119</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.602091394371</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>30.73901155626845</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>31.13893193492464</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.7544012944544</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>78.31512318719868</v>
       </c>
       <c r="G19" t="n">
-        <v>67.52345255978861</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>88.18825743108263</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>5.506781756523509</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.59775584152629</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6960474398171641</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>80.9846548059229</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>131.678664264154</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1339494774975</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>62.35543909864907</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.15991148283342</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>62.3554390986491</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26432,13 +26432,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26450,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952913.4583721443</v>
+        <v>-952913.4583721444</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.287355448</v>
+        <v>375831.2873554481</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.287355448</v>
+        <v>375831.2873554479</v>
       </c>
       <c r="E6" t="n">
-        <v>126690.6519349365</v>
+        <v>126343.2726805794</v>
       </c>
       <c r="F6" t="n">
-        <v>452103.1137422913</v>
+        <v>451755.7344879344</v>
       </c>
       <c r="G6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879347</v>
       </c>
       <c r="H6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422918</v>
+        <v>451755.7344879348</v>
       </c>
       <c r="J6" t="n">
-        <v>234571.9113450141</v>
+        <v>234224.5320906575</v>
       </c>
       <c r="K6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="L6" t="n">
-        <v>452103.1137422916</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="M6" t="n">
-        <v>367048.0858067798</v>
+        <v>366700.7065524229</v>
       </c>
       <c r="N6" t="n">
-        <v>452103.1137422912</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="O6" t="n">
-        <v>452103.1137422914</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="P6" t="n">
-        <v>452103.1137422916</v>
+        <v>451755.7344879344</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9030415727878</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.8986058694437</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>43.74019147769877</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>28.70990383000429</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.1264480123943</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.4988012306531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>95.07100897767519</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.9621784184792</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>253.2509233122019</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>91.25484570058615</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>51.24558311758204</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>73.32149933125649</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772184</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028594299</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1973467.574882594</v>
+        <v>1975228.10518538</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261238</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.3393327866099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>257.5019343756086</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347159</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082887</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.8791992932297</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8068469129627</v>
+        <v>120.7389995830104</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>112.0219684588056</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9870153438506</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>138.5234422138599</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176649</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016406</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>99.43007309478972</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>67.10592483573257</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.24570521548653</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>24.83266606353121</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>59.31005804030097</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>189.7822042251789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>43.73846614325537</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>223.829035290595</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2071.975386180637</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="U4" t="n">
-        <v>1163.908627226606</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="V4" t="n">
-        <v>1163.908627226606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4549,28 +4549,28 @@
         <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4707,34 +4707,34 @@
         <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
         <v>1805.335962651109</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2089.358425227296</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y8" t="n">
-        <v>2475.958265291418</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.541421943132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.541421943132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.541421943132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.541421943132</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400767</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121698</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138465</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703164</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5366,7 +5366,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
         <v>235.5284942057738</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>1877.026663243044</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.342175037157</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.925005000197</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5597,16 +5597,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>768.5380889459586</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>618.4214495336229</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>470.5083559512298</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908938</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,22 +5770,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908938</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155647</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>550.921708803229</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208358</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>403.0086152208358</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.8125159357158</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.686657667657</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.269487630696</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326791</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908938</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664459</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>48.39475227997539</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>186.7544012944544</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>78.31512318719868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>88.18825743108263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>41.54258064659044</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>38.59775584152629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.9846548059229</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>62.35543909864907</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>22.63678056686629</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.3554390986491</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830046</v>
@@ -26352,10 +26352,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.0109881573</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815714</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815713</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26435,13 +26435,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680577</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="I4" t="n">
-        <v>11776.97621680577</v>
-      </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952913.4583721444</v>
+        <v>-952913.4583721436</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.2873554481</v>
+        <v>375831.2873554473</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.2873554479</v>
+        <v>375831.287355448</v>
       </c>
       <c r="E6" t="n">
-        <v>126343.2726805794</v>
+        <v>126655.9140095001</v>
       </c>
       <c r="F6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168563</v>
       </c>
       <c r="G6" t="n">
-        <v>451755.7344879347</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="H6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.375816856</v>
       </c>
       <c r="I6" t="n">
-        <v>451755.7344879348</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="J6" t="n">
-        <v>234224.5320906575</v>
+        <v>234537.1734195786</v>
       </c>
       <c r="K6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168559</v>
       </c>
       <c r="L6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.375816856</v>
       </c>
       <c r="M6" t="n">
-        <v>366700.7065524229</v>
+        <v>367013.3478813441</v>
       </c>
       <c r="N6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="O6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="P6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168556</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683952</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.8986058694437</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>28.70990383000429</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911213</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.05117077903208</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>157.9621784184792</v>
+        <v>69.03002574843147</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>253.2509233122019</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.250923312203</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>51.24558311758204</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,10 +32086,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35734,10 +35734,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
